--- a/SubmissionDocuments/chapter keywords abstracts vers2.xlsx
+++ b/SubmissionDocuments/chapter keywords abstracts vers2.xlsx
@@ -1,37 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\HSS\Stephanie Taylor\1. Editorial Assistant\Pre Production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shravanvasishth/Git/RetrievalModels/SubmissionDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86BC3C-58DD-D244-883F-1562457046B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance notes" sheetId="3" r:id="rId1"/>
     <sheet name="Input sheet" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kate Allen</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -40,12 +49,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-up to 10 keywords per book and up to 10 keywords per chapter. Please separate each word with a comma.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>up to 10 keywords per book and up to 10 keywords per chapter. Please separate each word with a comma.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Chapter 2</t>
   </si>
@@ -255,11 +273,110 @@
   <si>
     <t>hidden ISBN</t>
   </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Dependencies in sentence comprehension</t>
+  </si>
+  <si>
+    <t>The core ACT-R based model of retrieval processes</t>
+  </si>
+  <si>
+    <t>Extension: Prominence and multiassociative cues</t>
+  </si>
+  <si>
+    <t>Extension: Eye-movement control and parsing</t>
+  </si>
+  <si>
+    <t>Reanalysis and underspecification</t>
+  </si>
+  <si>
+    <t>Competing accounts of interference in sentence processing</t>
+  </si>
+  <si>
+    <t>Modelling sentence comprehension deficits in aphasia</t>
+  </si>
+  <si>
+    <t>Future directions</t>
+  </si>
+  <si>
+    <t>Reviews the role of working memory in theories of sentence comprehension, and reviews current theoretical positions in sentence processing. The chapter also identifies several gaps in current research: the relative scarcity of computational models,  an excessive focus on average behavior, the absence of properly powered studies, and unclear criteria for identifying model fit. The chapter also summarizes the goals of the book: to provide open source code for facilitating reproducible analyses, to go beyond modelling average effects, and to provide a principled workflow for model evaluation and comparison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviews the different kinds of dependencies that have been investigated in sentence processing: subject-verb dependencies, reflexives and reciprocals, etc. This chapter also synthesizes the available empirical evidence by carrying out meta-analyses that provide estimates of the effect of interest in each dependency type. </t>
+  </si>
+  <si>
+    <t>The core model of sentence processing used in the book is introduced and its empirical coverage relative to the existing reading time data is considered. Here, we also discuss the Approximate Bayesian Computation method for parameter estimation for model evaluation.</t>
+  </si>
+  <si>
+    <t>This chapter discusses two extensions of the model presented in the previous chapter: the effect of prominence (through discourse prominence etc.) and the effect of so-called multiassociative cues. The empirical coverage of the extended model is evaluated against benchmark data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This chapter discusses three central phenomena of interest in sentence processing: reanalysis,  underspecification, and capacity-based differences in sentence comprehension. The model's quantitative predictions are evaluated against two benchmark data-sets that investigate renalysis and underspecification. </t>
+  </si>
+  <si>
+    <t>This final chapter discusses future directions that need to be pursued: we need common benchmark data-sets for model evaluation; larger-sample, properly powered studies that deliver accurate estimates of effects; and comprehensive model comparisons using  a common  benchmark data-set. A further  gap in the literature is  the  need to understand the production-comprehension link; this link could shed further light on many aspects of sentence comprehension, but there are also  several puzzles relating to the production-comprehension link (like the long-before-short preference in Japanese) that need to be investigated further.</t>
+  </si>
+  <si>
+    <t>Sentence comprehension as a cognitive process: A computational approach</t>
+  </si>
+  <si>
+    <t>Shravan</t>
+  </si>
+  <si>
+    <t>Vasishth</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Engelmann</t>
+  </si>
+  <si>
+    <t>computational modelling,  sentence processing, ACT-R, cue-based  retrieval, psycholinguistics</t>
+  </si>
+  <si>
+    <t>prominence, multiassociative cues, cue-based retrieval, sentence processing, psycholinguistics</t>
+  </si>
+  <si>
+    <t>This chapter presents another extension of the core model: an eye-movement control system is integrated with the parsing architecture, and this extended model is investigated using benchmark eyetracking data (the Potsdam Sentence Corpus).</t>
+  </si>
+  <si>
+    <t>Reanalysis, underspecification, individual differences, cue-based retrieval, sentence processing, psycholinguistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cue-based retrieval, ACT-R, direct-access model, k-fold cross-validation, model comparison, sentence comprehension, parsing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aphasia, cue-based retrieval, ACT-R, sentence comprehension, parsing, individual differences </t>
+  </si>
+  <si>
+    <t>benchmark data, model comparison, production-comprehension link, sentence comprehension, psycholinguistics</t>
+  </si>
+  <si>
+    <t>working memory, sentence comprehension, computational  models, psycholingustics</t>
+  </si>
+  <si>
+    <t>syntactic dependencies, subject-verb dependencies, reflexives, reciprocals, meta-analysis, sentence comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cue-based retrieval, ACT-R, sentence comprehension, parsing, psycholinguistics </t>
+  </si>
+  <si>
+    <t>Eye-movement control, reading, parsing, cue-based retrieval, EMMA, E-Z Reader</t>
+  </si>
+  <si>
+    <t>This chapter presents a model comparison between two competing models of retrieval processes: the cue-based retrieval model presented in this book, and the direct-access model. The two models are implemented in a Bayesian framework, and then model  comparison is carried out using k-fold cross validation. The benchmark data used for evaluation are from a previously published large-sample self-paced reading study (181 participants). The results show that the direct-access model has a better performance on this benchmark data than the cue-based retrieval model.</t>
+  </si>
+  <si>
+    <t>This chapter investigates whether sentence comprehension difficulty in aphasia can be explained in terms of retrieval processes. By modelling individuals with aphasia (IWAs) separately, we show that different IWAs show impairments along different dimensions: slowed processing, intermittent deficiency, and resource reduction. The parameters in the cue-based retrieval model have a theoretical interpretation that allows these three theories to be implemented within the architecture. In a further investigation, we compare the relative predictive accuracy of the cue-based model with that of the direct-access model. The benchmark data here are from Caplan et al. (2015); k-fold cross-validation is used as in the preceding chapter. The cue-based retrieval model is shown to have a better predictive performance.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,19 +400,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -352,6 +456,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -569,11 +686,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -593,14 +710,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -610,13 +727,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -653,13 +770,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,6 +878,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -796,6 +930,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -971,29 +1122,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="28" customWidth="1"/>
-    <col min="2" max="2" width="176.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="176.5" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>40</v>
       </c>
@@ -1001,13 +1152,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>24</v>
       </c>
@@ -1015,13 +1166,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -1029,7 +1180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>27</v>
       </c>
@@ -1037,7 +1188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>28</v>
       </c>
@@ -1045,13 +1196,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
     </row>
   </sheetData>
@@ -1075,34 +1226,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="79.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="79.33203125" style="12" customWidth="1"/>
     <col min="13" max="13" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" style="4" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="4"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="27.1640625" style="4" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="4"/>
+    <col min="17" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="50" t="s">
         <v>51</v>
@@ -1118,7 +1269,7 @@
       <c r="K1" s="51"/>
       <c r="L1" s="52"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>58</v>
       </c>
@@ -1159,7 +1310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1168,21 +1319,33 @@
         <v>38</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="4">
         <f>LEN(L3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -1198,7 +1361,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1228,7 +1391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1253,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1264,21 +1427,35 @@
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="D7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1289,21 +1466,35 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="D8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1314,21 +1505,35 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="D9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1339,21 +1544,35 @@
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="D10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1364,21 +1583,35 @@
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="D11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="11"/>
+      <c r="K11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1389,21 +1622,35 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1414,21 +1661,35 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="D13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1439,21 +1700,35 @@
       <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="11"/>
+      <c r="K14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1464,21 +1739,35 @@
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="D15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="11"/>
+      <c r="K15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1503,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1528,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1553,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1578,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1603,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1628,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1653,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1678,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1703,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1728,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37">
         <f>C3</f>
         <v>0</v>
@@ -1753,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1764,7 +2053,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1772,7 +2061,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1780,7 +2069,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1788,7 +2077,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1796,7 +2085,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1804,7 +2093,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1812,7 +2101,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1820,7 +2109,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1828,7 +2117,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1836,7 +2125,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1844,7 +2133,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1852,7 +2141,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1860,7 +2149,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38">
         <f>C3</f>
         <v>0</v>
@@ -1868,1051 +2157,1051 @@
       <c r="K40" s="15"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K41" s="15"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K42" s="15"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K43" s="15"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K44" s="15"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K45" s="15"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K46" s="15"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K47" s="15"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K48" s="15"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K49" s="15"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K50" s="15"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K51" s="15"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K52" s="15"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K53" s="15"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K54" s="15"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K55" s="15"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K56" s="15"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K57" s="15"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K58" s="15"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K59" s="15"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K60" s="15"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K61" s="15"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K62" s="15"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K63" s="15"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K64" s="15"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K65" s="15"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K66" s="15"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K67" s="15"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K68" s="15"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K69" s="15"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K70" s="15"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K71" s="15"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K72" s="15"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K73" s="15"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K74" s="15"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K75" s="15"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K76" s="15"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K77" s="15"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K78" s="15"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K79" s="15"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K80" s="15"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K81" s="15"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K82" s="15"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K83" s="15"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K84" s="15"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K85" s="15"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K86" s="15"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K87" s="15"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K88" s="15"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K89" s="15"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K90" s="15"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K91" s="15"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K92" s="15"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K93" s="15"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K94" s="15"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K95" s="15"/>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K96" s="15"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K97" s="15"/>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K98" s="15"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K99" s="15"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K100" s="15"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K101" s="15"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K102" s="15"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K103" s="15"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K104" s="15"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K105" s="15"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K106" s="15"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K107" s="15"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K108" s="15"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K109" s="15"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K110" s="15"/>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K111" s="15"/>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K112" s="15"/>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K113" s="15"/>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K114" s="15"/>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K115" s="15"/>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K116" s="15"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K117" s="15"/>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K118" s="15"/>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K119" s="15"/>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K120" s="15"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K121" s="15"/>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K122" s="15"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K123" s="15"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K124" s="15"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K125" s="15"/>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K126" s="15"/>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K127" s="15"/>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K128" s="15"/>
       <c r="L128" s="10"/>
     </row>
-    <row r="129" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K129" s="15"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K130" s="15"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K131" s="15"/>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K132" s="15"/>
       <c r="L132" s="10"/>
     </row>
-    <row r="133" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K133" s="15"/>
       <c r="L133" s="10"/>
     </row>
-    <row r="134" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K134" s="15"/>
       <c r="L134" s="10"/>
     </row>
-    <row r="135" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K135" s="15"/>
       <c r="L135" s="10"/>
     </row>
-    <row r="136" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K136" s="15"/>
       <c r="L136" s="10"/>
     </row>
-    <row r="137" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K137" s="15"/>
       <c r="L137" s="10"/>
     </row>
-    <row r="138" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K138" s="15"/>
       <c r="L138" s="10"/>
     </row>
-    <row r="139" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K139" s="15"/>
       <c r="L139" s="10"/>
     </row>
-    <row r="140" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K140" s="15"/>
       <c r="L140" s="10"/>
     </row>
-    <row r="141" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K141" s="15"/>
       <c r="L141" s="10"/>
     </row>
-    <row r="142" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K142" s="15"/>
       <c r="L142" s="10"/>
     </row>
-    <row r="143" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K143" s="15"/>
       <c r="L143" s="10"/>
     </row>
-    <row r="144" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K144" s="15"/>
       <c r="L144" s="10"/>
     </row>
-    <row r="145" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K145" s="15"/>
       <c r="L145" s="10"/>
     </row>
-    <row r="146" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K146" s="15"/>
       <c r="L146" s="10"/>
     </row>
-    <row r="147" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K147" s="15"/>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K148" s="15"/>
       <c r="L148" s="10"/>
     </row>
-    <row r="149" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K149" s="15"/>
       <c r="L149" s="10"/>
     </row>
-    <row r="150" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K150" s="15"/>
       <c r="L150" s="10"/>
     </row>
-    <row r="151" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K151" s="15"/>
       <c r="L151" s="10"/>
     </row>
-    <row r="152" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K152" s="15"/>
       <c r="L152" s="10"/>
     </row>
-    <row r="153" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K153" s="15"/>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K154" s="15"/>
       <c r="L154" s="10"/>
     </row>
-    <row r="155" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K155" s="15"/>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K156" s="15"/>
       <c r="L156" s="10"/>
     </row>
-    <row r="157" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K157" s="15"/>
       <c r="L157" s="10"/>
     </row>
-    <row r="158" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K158" s="15"/>
       <c r="L158" s="10"/>
     </row>
-    <row r="159" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K159" s="15"/>
       <c r="L159" s="10"/>
     </row>
-    <row r="160" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K160" s="15"/>
       <c r="L160" s="10"/>
     </row>
-    <row r="161" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K161" s="15"/>
       <c r="L161" s="10"/>
     </row>
-    <row r="162" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K162" s="15"/>
       <c r="L162" s="10"/>
     </row>
-    <row r="163" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K163" s="15"/>
       <c r="L163" s="10"/>
     </row>
-    <row r="164" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K164" s="15"/>
       <c r="L164" s="10"/>
     </row>
-    <row r="165" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K165" s="15"/>
       <c r="L165" s="10"/>
     </row>
-    <row r="166" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K166" s="15"/>
       <c r="L166" s="10"/>
     </row>
-    <row r="167" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K167" s="15"/>
       <c r="L167" s="10"/>
     </row>
-    <row r="168" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K168" s="15"/>
       <c r="L168" s="10"/>
     </row>
-    <row r="169" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K169" s="15"/>
       <c r="L169" s="10"/>
     </row>
-    <row r="170" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K170" s="15"/>
       <c r="L170" s="10"/>
     </row>
-    <row r="171" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K171" s="15"/>
       <c r="L171" s="10"/>
     </row>
-    <row r="172" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K172" s="15"/>
       <c r="L172" s="10"/>
     </row>
-    <row r="173" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K173" s="15"/>
       <c r="L173" s="10"/>
     </row>
-    <row r="174" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K174" s="15"/>
       <c r="L174" s="10"/>
     </row>
-    <row r="175" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K175" s="15"/>
       <c r="L175" s="10"/>
     </row>
-    <row r="176" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K176" s="15"/>
       <c r="L176" s="10"/>
     </row>
-    <row r="177" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K177" s="15"/>
       <c r="L177" s="10"/>
     </row>
-    <row r="178" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K178" s="15"/>
       <c r="L178" s="10"/>
     </row>
-    <row r="179" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K179" s="15"/>
       <c r="L179" s="10"/>
     </row>
-    <row r="180" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K180" s="15"/>
       <c r="L180" s="10"/>
     </row>
-    <row r="181" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K181" s="15"/>
       <c r="L181" s="10"/>
     </row>
-    <row r="182" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K182" s="15"/>
       <c r="L182" s="10"/>
     </row>
-    <row r="183" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K183" s="15"/>
       <c r="L183" s="10"/>
     </row>
-    <row r="184" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K184" s="15"/>
       <c r="L184" s="10"/>
     </row>
-    <row r="185" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K185" s="15"/>
       <c r="L185" s="10"/>
     </row>
-    <row r="186" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K186" s="15"/>
       <c r="L186" s="10"/>
     </row>
-    <row r="187" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K187" s="15"/>
       <c r="L187" s="10"/>
     </row>
-    <row r="188" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K188" s="15"/>
       <c r="L188" s="10"/>
     </row>
-    <row r="189" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K189" s="15"/>
       <c r="L189" s="10"/>
     </row>
-    <row r="190" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K190" s="15"/>
       <c r="L190" s="10"/>
     </row>
-    <row r="191" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K191" s="15"/>
       <c r="L191" s="10"/>
     </row>
-    <row r="192" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K192" s="15"/>
       <c r="L192" s="10"/>
     </row>
-    <row r="193" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K193" s="15"/>
       <c r="L193" s="10"/>
     </row>
-    <row r="194" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K194" s="15"/>
       <c r="L194" s="10"/>
     </row>
-    <row r="195" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K195" s="15"/>
       <c r="L195" s="10"/>
     </row>
-    <row r="196" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K196" s="15"/>
       <c r="L196" s="10"/>
     </row>
-    <row r="197" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K197" s="15"/>
       <c r="L197" s="10"/>
     </row>
-    <row r="198" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K198" s="15"/>
       <c r="L198" s="10"/>
     </row>
-    <row r="199" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K199" s="15"/>
       <c r="L199" s="10"/>
     </row>
-    <row r="200" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K200" s="15"/>
       <c r="L200" s="10"/>
     </row>
-    <row r="201" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K201" s="15"/>
       <c r="L201" s="10"/>
     </row>
-    <row r="202" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K202" s="15"/>
       <c r="L202" s="10"/>
     </row>
-    <row r="203" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K203" s="15"/>
       <c r="L203" s="10"/>
     </row>
-    <row r="204" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K204" s="15"/>
       <c r="L204" s="10"/>
     </row>
-    <row r="205" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K205" s="15"/>
       <c r="L205" s="10"/>
     </row>
-    <row r="206" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K206" s="15"/>
       <c r="L206" s="10"/>
     </row>
-    <row r="207" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K207" s="15"/>
       <c r="L207" s="10"/>
     </row>
-    <row r="208" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K208" s="15"/>
       <c r="L208" s="10"/>
     </row>
-    <row r="209" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K209" s="15"/>
       <c r="L209" s="10"/>
     </row>
-    <row r="210" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K210" s="15"/>
       <c r="L210" s="10"/>
     </row>
-    <row r="211" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K211" s="15"/>
       <c r="L211" s="10"/>
     </row>
-    <row r="212" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K212" s="15"/>
       <c r="L212" s="10"/>
     </row>
-    <row r="213" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K213" s="15"/>
       <c r="L213" s="10"/>
     </row>
-    <row r="214" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K214" s="15"/>
       <c r="L214" s="10"/>
     </row>
-    <row r="215" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K215" s="15"/>
       <c r="L215" s="10"/>
     </row>
-    <row r="216" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K216" s="15"/>
       <c r="L216" s="10"/>
     </row>
-    <row r="217" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K217" s="15"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K218" s="15"/>
       <c r="L218" s="10"/>
     </row>
-    <row r="219" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K219" s="15"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K220" s="15"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K221" s="15"/>
       <c r="L221" s="10"/>
     </row>
-    <row r="222" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K222" s="15"/>
       <c r="L222" s="10"/>
     </row>
-    <row r="223" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K223" s="15"/>
       <c r="L223" s="10"/>
     </row>
-    <row r="224" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K224" s="15"/>
       <c r="L224" s="10"/>
     </row>
-    <row r="225" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K225" s="15"/>
       <c r="L225" s="10"/>
     </row>
-    <row r="226" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K226" s="15"/>
       <c r="L226" s="10"/>
     </row>
-    <row r="227" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K227" s="15"/>
       <c r="L227" s="10"/>
     </row>
-    <row r="228" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K228" s="15"/>
       <c r="L228" s="10"/>
     </row>
-    <row r="229" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K229" s="15"/>
       <c r="L229" s="10"/>
     </row>
-    <row r="230" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K230" s="15"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K231" s="15"/>
       <c r="L231" s="10"/>
     </row>
-    <row r="232" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K232" s="15"/>
       <c r="L232" s="10"/>
     </row>
-    <row r="233" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K233" s="15"/>
       <c r="L233" s="10"/>
     </row>
-    <row r="234" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K234" s="15"/>
       <c r="L234" s="10"/>
     </row>
-    <row r="235" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K235" s="15"/>
       <c r="L235" s="10"/>
     </row>
-    <row r="236" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K236" s="15"/>
       <c r="L236" s="10"/>
     </row>
-    <row r="237" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K237" s="15"/>
       <c r="L237" s="10"/>
     </row>
-    <row r="238" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K238" s="15"/>
       <c r="L238" s="10"/>
     </row>
-    <row r="239" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K239" s="15"/>
       <c r="L239" s="10"/>
     </row>
-    <row r="240" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K240" s="15"/>
       <c r="L240" s="10"/>
     </row>
-    <row r="241" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K241" s="15"/>
       <c r="L241" s="10"/>
     </row>
-    <row r="242" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K242" s="15"/>
       <c r="L242" s="10"/>
     </row>
-    <row r="243" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K243" s="15"/>
       <c r="L243" s="10"/>
     </row>
-    <row r="244" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K244" s="15"/>
       <c r="L244" s="10"/>
     </row>
-    <row r="245" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K245" s="15"/>
       <c r="L245" s="10"/>
     </row>
-    <row r="246" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K246" s="15"/>
       <c r="L246" s="10"/>
     </row>
-    <row r="247" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K247" s="15"/>
       <c r="L247" s="10"/>
     </row>
-    <row r="248" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K248" s="15"/>
       <c r="L248" s="10"/>
     </row>
-    <row r="249" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K249" s="15"/>
       <c r="L249" s="10"/>
     </row>
-    <row r="250" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K250" s="15"/>
       <c r="L250" s="10"/>
     </row>
-    <row r="251" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K251" s="15"/>
       <c r="L251" s="10"/>
     </row>
-    <row r="252" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K252" s="15"/>
       <c r="L252" s="10"/>
     </row>
-    <row r="253" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K253" s="15"/>
       <c r="L253" s="10"/>
     </row>
-    <row r="254" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K254" s="15"/>
       <c r="L254" s="10"/>
     </row>
-    <row r="255" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K255" s="15"/>
       <c r="L255" s="10"/>
     </row>
-    <row r="256" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K256" s="15"/>
       <c r="L256" s="10"/>
     </row>
-    <row r="257" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K257" s="15"/>
       <c r="L257" s="10"/>
     </row>
-    <row r="258" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K258" s="15"/>
       <c r="L258" s="10"/>
     </row>
-    <row r="259" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K259" s="15"/>
       <c r="L259" s="10"/>
     </row>
-    <row r="260" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K260" s="15"/>
       <c r="L260" s="10"/>
     </row>
-    <row r="261" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K261" s="15"/>
       <c r="L261" s="10"/>
     </row>
-    <row r="262" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K262" s="15"/>
       <c r="L262" s="10"/>
     </row>
-    <row r="263" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K263" s="15"/>
       <c r="L263" s="10"/>
     </row>
-    <row r="264" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K264" s="15"/>
       <c r="L264" s="10"/>
     </row>
-    <row r="265" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K265" s="15"/>
       <c r="L265" s="10"/>
     </row>
-    <row r="266" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K266" s="15"/>
       <c r="L266" s="10"/>
     </row>
-    <row r="267" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K267" s="15"/>
       <c r="L267" s="10"/>
     </row>
-    <row r="268" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K268" s="15"/>
       <c r="L268" s="10"/>
     </row>
-    <row r="269" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K269" s="15"/>
       <c r="L269" s="10"/>
     </row>
-    <row r="270" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K270" s="15"/>
       <c r="L270" s="10"/>
     </row>
-    <row r="271" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K271" s="15"/>
       <c r="L271" s="10"/>
     </row>
-    <row r="272" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K272" s="15"/>
       <c r="L272" s="10"/>
     </row>
-    <row r="273" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K273" s="15"/>
       <c r="L273" s="10"/>
     </row>
-    <row r="274" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K274" s="15"/>
       <c r="L274" s="10"/>
     </row>
-    <row r="275" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K275" s="15"/>
       <c r="L275" s="10"/>
     </row>
-    <row r="276" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K276" s="15"/>
       <c r="L276" s="10"/>
     </row>
-    <row r="277" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K277" s="15"/>
       <c r="L277" s="10"/>
     </row>
-    <row r="278" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K278" s="15"/>
       <c r="L278" s="10"/>
     </row>
-    <row r="279" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K279" s="15"/>
       <c r="L279" s="10"/>
     </row>
-    <row r="280" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K280" s="15"/>
       <c r="L280" s="10"/>
     </row>
-    <row r="281" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K281" s="15"/>
       <c r="L281" s="10"/>
     </row>
-    <row r="282" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K282" s="15"/>
       <c r="L282" s="10"/>
     </row>
-    <row r="283" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K283" s="15"/>
       <c r="L283" s="10"/>
     </row>
-    <row r="284" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K284" s="15"/>
       <c r="L284" s="10"/>
     </row>
-    <row r="285" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K285" s="15"/>
       <c r="L285" s="10"/>
     </row>
-    <row r="286" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K286" s="15"/>
       <c r="L286" s="10"/>
     </row>
-    <row r="287" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K287" s="15"/>
       <c r="L287" s="10"/>
     </row>
-    <row r="288" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K288" s="15"/>
       <c r="L288" s="10"/>
     </row>
-    <row r="289" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K289" s="15"/>
       <c r="L289" s="10"/>
     </row>
-    <row r="290" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K290" s="15"/>
       <c r="L290" s="10"/>
     </row>
-    <row r="291" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K291" s="15"/>
       <c r="L291" s="10"/>
     </row>
-    <row r="292" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K292" s="15"/>
       <c r="L292" s="10"/>
     </row>
-    <row r="293" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K293" s="15"/>
       <c r="L293" s="10"/>
     </row>
-    <row r="294" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K294" s="15"/>
       <c r="L294" s="10"/>
     </row>
-    <row r="295" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K295" s="15"/>
       <c r="L295" s="10"/>
     </row>
-    <row r="296" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K296" s="15"/>
       <c r="L296" s="10"/>
     </row>
-    <row r="297" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K297" s="15"/>
       <c r="L297" s="10"/>
     </row>
-    <row r="298" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K298" s="15"/>
       <c r="L298" s="10"/>
     </row>
-    <row r="299" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K299" s="15"/>
       <c r="L299" s="10"/>
     </row>
-    <row r="300" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K300" s="15"/>
       <c r="L300" s="10"/>
     </row>
-    <row r="301" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K301" s="15"/>
       <c r="L301" s="10"/>
     </row>
-    <row r="302" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K302" s="15"/>
       <c r="L302" s="10"/>
     </row>
@@ -2926,19 +3215,19 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <dataValidations xWindow="965" yWindow="456" count="7">
-    <dataValidation type="textLength" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="abstract length exceeded" error="You have exceeded the recommended character length for the abstract. Please edit to 1200 characters" promptTitle="Book Abstract" prompt="A summary of no more than 200 words or 1200 characters describing the book as a whole. Click into the next cell on the right to check on length." sqref="L3">
+    <dataValidation type="textLength" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="abstract length exceeded" error="You have exceeded the recommended character length for the abstract. Please edit to 1200 characters" promptTitle="Book Abstract" prompt="A summary of no more than 200 words or 1200 characters describing the book as a whole. Click into the next cell on the right to check on length." sqref="L3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>1400</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="Book Keywords" prompt="up to 10 keywords that apply to the whole book. Please separate each word with a comma." sqref="K3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Chapter Keywords" prompt="Up to 10 keywords that apply to this chapter. Please separate each word with a comma." sqref="K6 K10:K26"/>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="13 digits" error="This field must contain the 13 digits and cannot be left blank" promptTitle="ISBN" prompt="The 13 digit ISBN which is unique to your book" sqref="C3">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="Book Keywords" prompt="up to 10 keywords that apply to the whole book. Please separate each word with a comma." sqref="K3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Chapter Keywords" prompt="Up to 10 keywords that apply to this chapter. Please separate each word with a comma." sqref="K6 K10:K26" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="13 digits" error="This field must contain the 13 digits and cannot be left blank" promptTitle="ISBN" prompt="The 13 digit ISBN which is unique to your book" sqref="C3" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>13</formula1>
       <formula2>13</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Book Title" prompt="The book title (as already agreed with your editor)" sqref="D3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Chapter Title" prompt="The title of this chapter" sqref="D6:D26"/>
-    <dataValidation type="textLength" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Abstract length exceeded" error="You have exceeded the recommended character length for the abstract. Please edit to 1200 characters" promptTitle="Chapter Abstract" prompt="A summary of no more than 200 words or 1200 characters, describing this chapter. Click into the next cell on the right to check on length." sqref="L6 L10:L26">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Book Title" prompt="The book title (as already agreed with your editor)" sqref="D3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Chapter Title" prompt="The title of this chapter" sqref="D6:D26" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation type="textLength" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Abstract length exceeded" error="You have exceeded the recommended character length for the abstract. Please edit to 1200 characters" promptTitle="Chapter Abstract" prompt="A summary of no more than 200 words or 1200 characters, describing this chapter. Click into the next cell on the right to check on length." sqref="L6 L10:L26" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>0</formula1>
       <formula2>1400</formula2>
     </dataValidation>
